--- a/Financials/Yearly/RBS_YR_FIN.xlsx
+++ b/Financials/Yearly/RBS_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E971FF-F967-40AB-9EF6-F7E1BD73A459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBS" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>RBS</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,87 +689,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14529500</v>
+        <v>14411300</v>
       </c>
       <c r="E8" s="3">
-        <v>14824400</v>
+        <v>14391800</v>
       </c>
       <c r="F8" s="3">
-        <v>15702700</v>
+        <v>14683900</v>
       </c>
       <c r="G8" s="3">
-        <v>17222300</v>
+        <v>15553900</v>
       </c>
       <c r="H8" s="3">
-        <v>19077700</v>
+        <v>17059100</v>
       </c>
       <c r="I8" s="3">
-        <v>24400100</v>
+        <v>18896800</v>
       </c>
       <c r="J8" s="3">
+        <v>24168900</v>
+      </c>
+      <c r="K8" s="3">
         <v>27700000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,9 +800,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +830,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +847,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +874,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +904,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,36 +934,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1064000</v>
+        <v>-953500</v>
       </c>
       <c r="E15" s="3">
-        <v>-1024500</v>
+        <v>-1053900</v>
       </c>
       <c r="F15" s="3">
-        <v>-1553800</v>
+        <v>-1014800</v>
       </c>
       <c r="G15" s="3">
-        <v>-1224600</v>
+        <v>-1539100</v>
       </c>
       <c r="H15" s="3">
-        <v>-1642000</v>
+        <v>-1213000</v>
       </c>
       <c r="I15" s="3">
-        <v>-4745700</v>
+        <v>-1626500</v>
       </c>
       <c r="J15" s="3">
+        <v>-4700700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-4089900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +978,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3344600</v>
+        <v>3640300</v>
       </c>
       <c r="E17" s="3">
-        <v>3987200</v>
+        <v>3312900</v>
       </c>
       <c r="F17" s="3">
-        <v>3201100</v>
+        <v>3949500</v>
       </c>
       <c r="G17" s="3">
-        <v>3251200</v>
+        <v>3170800</v>
       </c>
       <c r="H17" s="3">
-        <v>17896500</v>
+        <v>3220300</v>
       </c>
       <c r="I17" s="3">
-        <v>16337400</v>
+        <v>17726900</v>
       </c>
       <c r="J17" s="3">
+        <v>16182600</v>
+      </c>
+      <c r="K17" s="3">
         <v>22964800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11184800</v>
+        <v>10771000</v>
       </c>
       <c r="E18" s="3">
-        <v>10837200</v>
+        <v>11078800</v>
       </c>
       <c r="F18" s="3">
-        <v>12501600</v>
+        <v>10734500</v>
       </c>
       <c r="G18" s="3">
-        <v>13971100</v>
+        <v>12383100</v>
       </c>
       <c r="H18" s="3">
-        <v>1181200</v>
+        <v>13838700</v>
       </c>
       <c r="I18" s="3">
-        <v>8062700</v>
+        <v>1170000</v>
       </c>
       <c r="J18" s="3">
+        <v>7986300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4735200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,62 +1052,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8236500</v>
+        <v>-6389800</v>
       </c>
       <c r="E20" s="3">
-        <v>-16212300</v>
+        <v>-8158500</v>
       </c>
       <c r="F20" s="3">
-        <v>-16060900</v>
+        <v>-16058700</v>
       </c>
       <c r="G20" s="3">
-        <v>-10490900</v>
+        <v>-15908700</v>
       </c>
       <c r="H20" s="3">
-        <v>-12833400</v>
+        <v>-10391400</v>
       </c>
       <c r="I20" s="3">
-        <v>-15011400</v>
+        <v>-12711800</v>
       </c>
       <c r="J20" s="3">
+        <v>-14869100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6573400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4008300</v>
+        <v>5328100</v>
       </c>
       <c r="E21" s="3">
-        <v>-4354500</v>
+        <v>3986000</v>
       </c>
       <c r="F21" s="3">
-        <v>-2011200</v>
+        <v>-4298100</v>
       </c>
       <c r="G21" s="3">
-        <v>4935200</v>
+        <v>-1969200</v>
       </c>
       <c r="H21" s="3">
-        <v>-9802500</v>
+        <v>4910000</v>
       </c>
       <c r="I21" s="3">
-        <v>-4516400</v>
+        <v>-9682200</v>
       </c>
       <c r="J21" s="3">
+        <v>-4437600</v>
+      </c>
+      <c r="K21" s="3">
         <v>621600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,63 +1139,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2948300</v>
+        <v>4381200</v>
       </c>
       <c r="E23" s="3">
-        <v>-5375100</v>
+        <v>2920400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3559300</v>
+        <v>-5324200</v>
       </c>
       <c r="G23" s="3">
-        <v>3480300</v>
+        <v>-3525500</v>
       </c>
       <c r="H23" s="3">
-        <v>-11652300</v>
+        <v>3447300</v>
       </c>
       <c r="I23" s="3">
-        <v>-6948700</v>
+        <v>-11541800</v>
       </c>
       <c r="J23" s="3">
+        <v>-6882800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1838200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1085000</v>
+        <v>1663000</v>
       </c>
       <c r="E24" s="3">
-        <v>1535400</v>
+        <v>1074800</v>
       </c>
       <c r="F24" s="3">
-        <v>30300</v>
+        <v>1520800</v>
       </c>
       <c r="G24" s="3">
-        <v>2513800</v>
+        <v>30000</v>
       </c>
       <c r="H24" s="3">
-        <v>244900</v>
+        <v>2489900</v>
       </c>
       <c r="I24" s="3">
-        <v>580700</v>
+        <v>242600</v>
       </c>
       <c r="J24" s="3">
+        <v>575200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1415500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1229,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1863300</v>
+        <v>2718200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6910500</v>
+        <v>1845600</v>
       </c>
       <c r="F26" s="3">
-        <v>-3589600</v>
+        <v>-6845000</v>
       </c>
       <c r="G26" s="3">
-        <v>966500</v>
+        <v>-3555500</v>
       </c>
       <c r="H26" s="3">
-        <v>-11897200</v>
+        <v>957400</v>
       </c>
       <c r="I26" s="3">
-        <v>-7529400</v>
+        <v>-11784400</v>
       </c>
       <c r="J26" s="3">
+        <v>-7458000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3253800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>990200</v>
+        <v>2115600</v>
       </c>
       <c r="E27" s="3">
-        <v>-9158300</v>
+        <v>980800</v>
       </c>
       <c r="F27" s="3">
-        <v>-4635100</v>
+        <v>-9071500</v>
       </c>
       <c r="G27" s="3">
-        <v>-32900</v>
+        <v>-4591200</v>
       </c>
       <c r="H27" s="3">
-        <v>-12643800</v>
+        <v>-32600</v>
       </c>
       <c r="I27" s="3">
-        <v>-7989000</v>
+        <v>-12524000</v>
       </c>
       <c r="J27" s="3">
+        <v>-7913200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3290700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,36 +1319,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>2029200</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-4536300</v>
+        <v>2009900</v>
       </c>
       <c r="H29" s="3">
-        <v>734800</v>
+        <v>-4493300</v>
       </c>
       <c r="I29" s="3">
-        <v>-226500</v>
+        <v>727800</v>
       </c>
       <c r="J29" s="3">
+        <v>-224300</v>
+      </c>
+      <c r="K29" s="3">
         <v>451700</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1409,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8236500</v>
+        <v>6389800</v>
       </c>
       <c r="E32" s="3">
-        <v>16212300</v>
+        <v>8158500</v>
       </c>
       <c r="F32" s="3">
-        <v>16060900</v>
+        <v>16058700</v>
       </c>
       <c r="G32" s="3">
-        <v>10490900</v>
+        <v>15908700</v>
       </c>
       <c r="H32" s="3">
-        <v>12833400</v>
+        <v>10391400</v>
       </c>
       <c r="I32" s="3">
-        <v>15011400</v>
+        <v>12711800</v>
       </c>
       <c r="J32" s="3">
+        <v>14869100</v>
+      </c>
+      <c r="K32" s="3">
         <v>6573400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>990200</v>
+        <v>2115600</v>
       </c>
       <c r="E33" s="3">
-        <v>-9158300</v>
+        <v>980800</v>
       </c>
       <c r="F33" s="3">
-        <v>-2605900</v>
+        <v>-9071500</v>
       </c>
       <c r="G33" s="3">
-        <v>-4569300</v>
+        <v>-2581200</v>
       </c>
       <c r="H33" s="3">
-        <v>-11909000</v>
+        <v>-4526000</v>
       </c>
       <c r="I33" s="3">
-        <v>-8215500</v>
+        <v>-11796200</v>
       </c>
       <c r="J33" s="3">
+        <v>-8137600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2839000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1499,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>990200</v>
+        <v>2115600</v>
       </c>
       <c r="E35" s="3">
-        <v>-9158300</v>
+        <v>980800</v>
       </c>
       <c r="F35" s="3">
-        <v>-2605900</v>
+        <v>-9071500</v>
       </c>
       <c r="G35" s="3">
-        <v>-4569300</v>
+        <v>-2581200</v>
       </c>
       <c r="H35" s="3">
-        <v>-11909000</v>
+        <v>-4526000</v>
       </c>
       <c r="I35" s="3">
-        <v>-8215500</v>
+        <v>-11796200</v>
       </c>
       <c r="J35" s="3">
+        <v>-8137600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2839000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,62 +1595,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>150892000</v>
+        <v>132836000</v>
       </c>
       <c r="E41" s="3">
-        <v>120523000</v>
+        <v>149462000</v>
       </c>
       <c r="F41" s="3">
-        <v>128736000</v>
+        <v>119381000</v>
       </c>
       <c r="G41" s="3">
-        <v>159234000</v>
+        <v>127516000</v>
       </c>
       <c r="H41" s="3">
-        <v>145129000</v>
+        <v>157725000</v>
       </c>
       <c r="I41" s="3">
-        <v>181225000</v>
+        <v>143753000</v>
       </c>
       <c r="J41" s="3">
+        <v>179507000</v>
+      </c>
+      <c r="K41" s="3">
         <v>219916000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>302022000</v>
+        <v>349494000</v>
       </c>
       <c r="E42" s="3">
-        <v>413161000</v>
+        <v>299159000</v>
       </c>
       <c r="F42" s="3">
-        <v>446637000</v>
+        <v>409246000</v>
       </c>
       <c r="G42" s="3">
-        <v>622843000</v>
+        <v>442404000</v>
       </c>
       <c r="H42" s="3">
-        <v>569568000</v>
+        <v>616940000</v>
       </c>
       <c r="I42" s="3">
-        <v>986442000</v>
+        <v>564170000</v>
       </c>
       <c r="J42" s="3">
+        <v>977093000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1062700000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,9 +1682,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,9 +1712,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,9 +1742,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,26 +1772,29 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1856700</v>
+        <v>526900</v>
       </c>
       <c r="E47" s="3">
-        <v>1987000</v>
+        <v>1839100</v>
       </c>
       <c r="F47" s="3">
-        <v>1595900</v>
+        <v>1968200</v>
       </c>
       <c r="G47" s="3">
-        <v>1387900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+        <v>1580800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1374700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1663,63 +1802,72 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6059900</v>
+        <v>5675100</v>
       </c>
       <c r="E48" s="3">
-        <v>6044100</v>
+        <v>6002400</v>
       </c>
       <c r="F48" s="3">
-        <v>5901900</v>
+        <v>5986800</v>
       </c>
       <c r="G48" s="3">
-        <v>10666000</v>
+        <v>5845900</v>
       </c>
       <c r="H48" s="3">
-        <v>10414500</v>
+        <v>10564900</v>
       </c>
       <c r="I48" s="3">
-        <v>25766900</v>
+        <v>10315800</v>
       </c>
       <c r="J48" s="3">
+        <v>25522700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15627700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8615800</v>
+        <v>8629300</v>
       </c>
       <c r="E49" s="3">
-        <v>8532800</v>
+        <v>8534100</v>
       </c>
       <c r="F49" s="3">
-        <v>8607900</v>
+        <v>8451900</v>
       </c>
       <c r="G49" s="3">
-        <v>12239600</v>
+        <v>8526300</v>
       </c>
       <c r="H49" s="3">
-        <v>16286100</v>
+        <v>12123600</v>
       </c>
       <c r="I49" s="3">
-        <v>35671800</v>
+        <v>16131700</v>
       </c>
       <c r="J49" s="3">
+        <v>35333800</v>
+      </c>
+      <c r="K49" s="3">
         <v>19564900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1922,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3064200</v>
+        <v>4351200</v>
       </c>
       <c r="E52" s="3">
-        <v>2754700</v>
+        <v>3035100</v>
       </c>
       <c r="F52" s="3">
-        <v>8337900</v>
+        <v>2728600</v>
       </c>
       <c r="G52" s="3">
-        <v>110745000</v>
+        <v>8258900</v>
       </c>
       <c r="H52" s="3">
-        <v>8834300</v>
+        <v>109695000</v>
       </c>
       <c r="I52" s="3">
-        <v>23060900</v>
+        <v>8750600</v>
       </c>
       <c r="J52" s="3">
+        <v>22842400</v>
+      </c>
+      <c r="K52" s="3">
         <v>39279800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1982,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>971865000</v>
+        <v>905498000</v>
       </c>
       <c r="E54" s="3">
-        <v>1051660000</v>
+        <v>962654000</v>
       </c>
       <c r="F54" s="3">
-        <v>1073720000</v>
+        <v>1041700000</v>
       </c>
       <c r="G54" s="3">
-        <v>1383970000</v>
+        <v>1063540000</v>
       </c>
       <c r="H54" s="3">
-        <v>1353500000</v>
+        <v>1370850000</v>
       </c>
       <c r="I54" s="3">
-        <v>1728020000</v>
+        <v>1340670000</v>
       </c>
       <c r="J54" s="3">
+        <v>1711640000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1984230000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2043,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,63 +2070,72 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60958200</v>
+        <v>13944400</v>
       </c>
       <c r="E58" s="3">
-        <v>51235000</v>
+        <v>60380400</v>
       </c>
       <c r="F58" s="3">
-        <v>63734000</v>
+        <v>50749400</v>
       </c>
       <c r="G58" s="3">
-        <v>101320000</v>
+        <v>63129900</v>
       </c>
       <c r="H58" s="3">
-        <v>137986000</v>
+        <v>100360000</v>
       </c>
       <c r="I58" s="3">
-        <v>380651000</v>
+        <v>136679000</v>
       </c>
       <c r="J58" s="3">
+        <v>377043000</v>
+      </c>
+      <c r="K58" s="3">
         <v>432173000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1713100</v>
+        <v>1496000</v>
       </c>
       <c r="E59" s="3">
-        <v>2168800</v>
+        <v>1696900</v>
       </c>
       <c r="F59" s="3">
-        <v>3006200</v>
+        <v>2148200</v>
       </c>
       <c r="G59" s="3">
-        <v>4502100</v>
+        <v>2977700</v>
       </c>
       <c r="H59" s="3">
-        <v>4782600</v>
+        <v>4459400</v>
       </c>
       <c r="I59" s="3">
-        <v>5406700</v>
+        <v>4737300</v>
       </c>
       <c r="J59" s="3">
+        <v>5355500</v>
+      </c>
+      <c r="K59" s="3">
         <v>7428000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,63 +2160,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43398800</v>
+        <v>54426200</v>
       </c>
       <c r="E61" s="3">
-        <v>51236300</v>
+        <v>42987400</v>
       </c>
       <c r="F61" s="3">
-        <v>53877800</v>
+        <v>50750700</v>
       </c>
       <c r="G61" s="3">
-        <v>77788100</v>
+        <v>53367100</v>
       </c>
       <c r="H61" s="3">
-        <v>97355600</v>
+        <v>77050800</v>
       </c>
       <c r="I61" s="3">
-        <v>129991000</v>
+        <v>96432900</v>
       </c>
       <c r="J61" s="3">
+        <v>128759000</v>
+      </c>
+      <c r="K61" s="3">
         <v>157260000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11151900</v>
+        <v>4725500</v>
       </c>
       <c r="E62" s="3">
-        <v>18252000</v>
+        <v>11046200</v>
       </c>
       <c r="F62" s="3">
-        <v>15850200</v>
+        <v>18079000</v>
       </c>
       <c r="G62" s="3">
-        <v>12630600</v>
+        <v>15700000</v>
       </c>
       <c r="H62" s="3">
-        <v>4894500</v>
+        <v>12510900</v>
       </c>
       <c r="I62" s="3">
-        <v>6616900</v>
+        <v>4848100</v>
       </c>
       <c r="J62" s="3">
+        <v>6554200</v>
+      </c>
+      <c r="K62" s="3">
         <v>5509400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2310,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>908224000</v>
+        <v>845844000</v>
       </c>
       <c r="E66" s="3">
-        <v>987654000</v>
+        <v>899617000</v>
       </c>
       <c r="F66" s="3">
-        <v>1003360000</v>
+        <v>978294000</v>
       </c>
       <c r="G66" s="3">
-        <v>1310540000</v>
+        <v>993854000</v>
       </c>
       <c r="H66" s="3">
-        <v>1276150000</v>
+        <v>1298120000</v>
       </c>
       <c r="I66" s="3">
-        <v>1637580000</v>
+        <v>1264050000</v>
       </c>
       <c r="J66" s="3">
+        <v>1622060000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1884980000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2444,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2474,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36884600</v>
+        <v>32859500</v>
       </c>
       <c r="E72" s="3">
-        <v>3274900</v>
+        <v>36535000</v>
       </c>
       <c r="F72" s="3">
-        <v>15015400</v>
+        <v>3243800</v>
       </c>
       <c r="G72" s="3">
-        <v>24165700</v>
+        <v>14873000</v>
       </c>
       <c r="H72" s="3">
-        <v>30575900</v>
+        <v>23936700</v>
       </c>
       <c r="I72" s="3">
-        <v>41796200</v>
+        <v>30286100</v>
       </c>
       <c r="J72" s="3">
+        <v>41400100</v>
+      </c>
+      <c r="K72" s="3">
         <v>41006200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2594,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>63640500</v>
+        <v>59653900</v>
       </c>
       <c r="E76" s="3">
-        <v>64007800</v>
+        <v>63037300</v>
       </c>
       <c r="F76" s="3">
-        <v>70357400</v>
+        <v>63401200</v>
       </c>
       <c r="G76" s="3">
-        <v>73428200</v>
+        <v>69690600</v>
       </c>
       <c r="H76" s="3">
-        <v>77350900</v>
+        <v>72732200</v>
       </c>
       <c r="I76" s="3">
-        <v>90434500</v>
+        <v>76617800</v>
       </c>
       <c r="J76" s="3">
+        <v>89577400</v>
+      </c>
+      <c r="K76" s="3">
         <v>99242500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2654,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>990200</v>
+        <v>2115600</v>
       </c>
       <c r="E81" s="3">
-        <v>-9158300</v>
+        <v>980800</v>
       </c>
       <c r="F81" s="3">
-        <v>-2605900</v>
+        <v>-9071500</v>
       </c>
       <c r="G81" s="3">
-        <v>-4569300</v>
+        <v>-2581200</v>
       </c>
       <c r="H81" s="3">
-        <v>-11909000</v>
+        <v>-4526000</v>
       </c>
       <c r="I81" s="3">
-        <v>-8215500</v>
+        <v>-11796200</v>
       </c>
       <c r="J81" s="3">
+        <v>-8137600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2839000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1064000</v>
+        <v>936500</v>
       </c>
       <c r="E83" s="3">
-        <v>1024500</v>
+        <v>1053900</v>
       </c>
       <c r="F83" s="3">
-        <v>1553800</v>
+        <v>1014800</v>
       </c>
       <c r="G83" s="3">
-        <v>1460300</v>
+        <v>1539100</v>
       </c>
       <c r="H83" s="3">
-        <v>1856700</v>
+        <v>1446500</v>
       </c>
       <c r="I83" s="3">
-        <v>2441300</v>
+        <v>1839100</v>
       </c>
       <c r="J83" s="3">
+        <v>2418200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2469000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2913,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>51013800</v>
+        <v>-297400</v>
       </c>
       <c r="E89" s="3">
-        <v>-4806300</v>
+        <v>50530300</v>
       </c>
       <c r="F89" s="3">
-        <v>1208800</v>
+        <v>-4760700</v>
       </c>
       <c r="G89" s="3">
-        <v>-26845400</v>
+        <v>1197400</v>
       </c>
       <c r="H89" s="3">
-        <v>-40334600</v>
+        <v>-26591000</v>
       </c>
       <c r="I89" s="3">
-        <v>-59404300</v>
+        <v>-39952300</v>
       </c>
       <c r="J89" s="3">
+        <v>-58841300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4378300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,35 +2960,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1490600</v>
+        <v>-807400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1200900</v>
+        <v>-1476500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1031000</v>
+        <v>-1189500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1074500</v>
+        <v>-1021300</v>
       </c>
       <c r="H91" s="3">
-        <v>-824300</v>
+        <v>-1064300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1954100</v>
+        <v>-816500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1935600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4571900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3047,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8535400</v>
+        <v>-10375800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5739900</v>
+        <v>-8454500</v>
       </c>
       <c r="F94" s="3">
-        <v>-6407500</v>
+        <v>-5685500</v>
       </c>
       <c r="G94" s="3">
-        <v>8702700</v>
+        <v>-6346800</v>
       </c>
       <c r="H94" s="3">
-        <v>27893600</v>
+        <v>8620200</v>
       </c>
       <c r="I94" s="3">
-        <v>35783800</v>
+        <v>27629200</v>
       </c>
       <c r="J94" s="3">
+        <v>35444600</v>
+      </c>
+      <c r="K94" s="3">
         <v>18400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,35 +3094,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-805900</v>
+        <v>-1047400</v>
       </c>
       <c r="E96" s="3">
-        <v>-663700</v>
+        <v>-798200</v>
       </c>
       <c r="F96" s="3">
-        <v>-547800</v>
+        <v>-657400</v>
       </c>
       <c r="G96" s="3">
-        <v>-504300</v>
+        <v>-542600</v>
       </c>
       <c r="H96" s="3">
-        <v>-530700</v>
+        <v>-499600</v>
       </c>
       <c r="I96" s="3">
-        <v>-396400</v>
+        <v>-525600</v>
       </c>
       <c r="J96" s="3">
+        <v>-392600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3211,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10808200</v>
+        <v>-8200200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6724800</v>
+        <v>-10705800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1237800</v>
+        <v>-6661100</v>
       </c>
       <c r="G100" s="3">
-        <v>-532000</v>
+        <v>-1226100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3592200</v>
+        <v>-526900</v>
       </c>
       <c r="I100" s="3">
-        <v>2656000</v>
+        <v>-3558200</v>
       </c>
       <c r="J100" s="3">
+        <v>2630800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2292500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21100</v>
+        <v>881700</v>
       </c>
       <c r="E101" s="3">
-        <v>10658100</v>
+        <v>-20900</v>
       </c>
       <c r="F101" s="3">
-        <v>758500</v>
+        <v>10557100</v>
       </c>
       <c r="G101" s="3">
-        <v>1197000</v>
+        <v>751300</v>
       </c>
       <c r="H101" s="3">
-        <v>674200</v>
+        <v>1185600</v>
       </c>
       <c r="I101" s="3">
-        <v>-5126300</v>
+        <v>667800</v>
       </c>
       <c r="J101" s="3">
+        <v>-5077700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1939600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31649000</v>
+        <v>-17991700</v>
       </c>
       <c r="E102" s="3">
-        <v>-6612900</v>
+        <v>31349100</v>
       </c>
       <c r="F102" s="3">
-        <v>-5678000</v>
+        <v>-6550200</v>
       </c>
       <c r="G102" s="3">
-        <v>-17477800</v>
+        <v>-5624200</v>
       </c>
       <c r="H102" s="3">
-        <v>-15359000</v>
+        <v>-17312100</v>
       </c>
       <c r="I102" s="3">
-        <v>-26090900</v>
+        <v>-15213500</v>
       </c>
       <c r="J102" s="3">
+        <v>-25843600</v>
+      </c>
+      <c r="K102" s="3">
         <v>164600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/RBS_YR_FIN.xlsx
+++ b/Financials/Yearly/RBS_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E971FF-F967-40AB-9EF6-F7E1BD73A459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RBS" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,37 +710,37 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14411300</v>
+        <v>14284300</v>
       </c>
       <c r="E8" s="3">
-        <v>14391800</v>
+        <v>14264900</v>
       </c>
       <c r="F8" s="3">
-        <v>14683900</v>
+        <v>14554500</v>
       </c>
       <c r="G8" s="3">
-        <v>15553900</v>
+        <v>15416800</v>
       </c>
       <c r="H8" s="3">
-        <v>17059100</v>
+        <v>16908700</v>
       </c>
       <c r="I8" s="3">
-        <v>18896800</v>
+        <v>18730200</v>
       </c>
       <c r="J8" s="3">
-        <v>24168900</v>
+        <v>23955800</v>
       </c>
       <c r="K8" s="3">
         <v>27700000</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -805,7 +770,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,7 +800,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,7 +814,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -879,7 +844,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,7 +874,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,37 +904,37 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-953500</v>
+        <v>-945000</v>
       </c>
       <c r="E15" s="3">
-        <v>-1053900</v>
+        <v>-1044600</v>
       </c>
       <c r="F15" s="3">
-        <v>-1014800</v>
+        <v>-1005800</v>
       </c>
       <c r="G15" s="3">
-        <v>-1539100</v>
+        <v>-1525500</v>
       </c>
       <c r="H15" s="3">
-        <v>-1213000</v>
+        <v>-1202300</v>
       </c>
       <c r="I15" s="3">
-        <v>-1626500</v>
+        <v>-1612100</v>
       </c>
       <c r="J15" s="3">
-        <v>-4700700</v>
+        <v>-4659300</v>
       </c>
       <c r="K15" s="3">
         <v>-4089900</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,67 +945,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3640300</v>
+        <v>3608200</v>
       </c>
       <c r="E17" s="3">
-        <v>3312900</v>
+        <v>3283700</v>
       </c>
       <c r="F17" s="3">
-        <v>3949500</v>
+        <v>3914600</v>
       </c>
       <c r="G17" s="3">
-        <v>3170800</v>
+        <v>3142800</v>
       </c>
       <c r="H17" s="3">
-        <v>3220300</v>
+        <v>3191900</v>
       </c>
       <c r="I17" s="3">
-        <v>17726900</v>
+        <v>17570600</v>
       </c>
       <c r="J17" s="3">
-        <v>16182600</v>
+        <v>16039900</v>
       </c>
       <c r="K17" s="3">
         <v>22964800</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10771000</v>
+        <v>10676000</v>
       </c>
       <c r="E18" s="3">
-        <v>11078800</v>
+        <v>10981100</v>
       </c>
       <c r="F18" s="3">
-        <v>10734500</v>
+        <v>10639800</v>
       </c>
       <c r="G18" s="3">
-        <v>12383100</v>
+        <v>12273900</v>
       </c>
       <c r="H18" s="3">
-        <v>13838700</v>
+        <v>13716700</v>
       </c>
       <c r="I18" s="3">
-        <v>1170000</v>
+        <v>1159700</v>
       </c>
       <c r="J18" s="3">
-        <v>7986300</v>
+        <v>7915900</v>
       </c>
       <c r="K18" s="3">
         <v>4735200</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,67 +1019,67 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6389800</v>
+        <v>-6333500</v>
       </c>
       <c r="E20" s="3">
-        <v>-8158500</v>
+        <v>-8086500</v>
       </c>
       <c r="F20" s="3">
-        <v>-16058700</v>
+        <v>-15917100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15908700</v>
+        <v>-15768400</v>
       </c>
       <c r="H20" s="3">
-        <v>-10391400</v>
+        <v>-10299800</v>
       </c>
       <c r="I20" s="3">
-        <v>-12711800</v>
+        <v>-12599700</v>
       </c>
       <c r="J20" s="3">
-        <v>-14869100</v>
+        <v>-14738000</v>
       </c>
       <c r="K20" s="3">
         <v>-6573400</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5328100</v>
+        <v>5275900</v>
       </c>
       <c r="E21" s="3">
-        <v>3986000</v>
+        <v>3945000</v>
       </c>
       <c r="F21" s="3">
-        <v>-4298100</v>
+        <v>-4265900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1969200</v>
+        <v>-1960500</v>
       </c>
       <c r="H21" s="3">
-        <v>4910000</v>
+        <v>4858600</v>
       </c>
       <c r="I21" s="3">
-        <v>-9682200</v>
+        <v>-9607100</v>
       </c>
       <c r="J21" s="3">
-        <v>-4437600</v>
+        <v>-4412000</v>
       </c>
       <c r="K21" s="3">
         <v>621600</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1144,67 +1109,67 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4381200</v>
+        <v>4342500</v>
       </c>
       <c r="E23" s="3">
-        <v>2920400</v>
+        <v>2894600</v>
       </c>
       <c r="F23" s="3">
-        <v>-5324200</v>
+        <v>-5277300</v>
       </c>
       <c r="G23" s="3">
-        <v>-3525500</v>
+        <v>-3494500</v>
       </c>
       <c r="H23" s="3">
-        <v>3447300</v>
+        <v>3416900</v>
       </c>
       <c r="I23" s="3">
-        <v>-11541800</v>
+        <v>-11440100</v>
       </c>
       <c r="J23" s="3">
-        <v>-6882800</v>
+        <v>-6822200</v>
       </c>
       <c r="K23" s="3">
         <v>-1838200</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1663000</v>
+        <v>1648300</v>
       </c>
       <c r="E24" s="3">
-        <v>1074800</v>
+        <v>1065300</v>
       </c>
       <c r="F24" s="3">
-        <v>1520800</v>
+        <v>1507400</v>
       </c>
       <c r="G24" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="H24" s="3">
-        <v>2489900</v>
+        <v>2468000</v>
       </c>
       <c r="I24" s="3">
-        <v>242600</v>
+        <v>240500</v>
       </c>
       <c r="J24" s="3">
-        <v>575200</v>
+        <v>570100</v>
       </c>
       <c r="K24" s="3">
         <v>1415500</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,67 +1199,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2718200</v>
+        <v>2694200</v>
       </c>
       <c r="E26" s="3">
-        <v>1845600</v>
+        <v>1829300</v>
       </c>
       <c r="F26" s="3">
-        <v>-6845000</v>
+        <v>-6784700</v>
       </c>
       <c r="G26" s="3">
-        <v>-3555500</v>
+        <v>-3524200</v>
       </c>
       <c r="H26" s="3">
-        <v>957400</v>
+        <v>948900</v>
       </c>
       <c r="I26" s="3">
-        <v>-11784400</v>
+        <v>-11680500</v>
       </c>
       <c r="J26" s="3">
-        <v>-7458000</v>
+        <v>-7392300</v>
       </c>
       <c r="K26" s="3">
         <v>-3253800</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2115600</v>
+        <v>2096900</v>
       </c>
       <c r="E27" s="3">
-        <v>980800</v>
+        <v>972200</v>
       </c>
       <c r="F27" s="3">
-        <v>-9071500</v>
+        <v>-8991500</v>
       </c>
       <c r="G27" s="3">
-        <v>-4591200</v>
+        <v>-4550700</v>
       </c>
       <c r="H27" s="3">
-        <v>-32600</v>
+        <v>-32300</v>
       </c>
       <c r="I27" s="3">
-        <v>-12524000</v>
+        <v>-12413600</v>
       </c>
       <c r="J27" s="3">
-        <v>-7913200</v>
+        <v>-7843500</v>
       </c>
       <c r="K27" s="3">
         <v>-3290700</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1289,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1338,23 +1303,23 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2009900</v>
+        <v>1992200</v>
       </c>
       <c r="H29" s="3">
-        <v>-4493300</v>
+        <v>-4453700</v>
       </c>
       <c r="I29" s="3">
-        <v>727800</v>
+        <v>721400</v>
       </c>
       <c r="J29" s="3">
-        <v>-224300</v>
+        <v>-222400</v>
       </c>
       <c r="K29" s="3">
         <v>451700</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1349,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,67 +1379,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6389800</v>
+        <v>6333500</v>
       </c>
       <c r="E32" s="3">
-        <v>8158500</v>
+        <v>8086500</v>
       </c>
       <c r="F32" s="3">
-        <v>16058700</v>
+        <v>15917100</v>
       </c>
       <c r="G32" s="3">
-        <v>15908700</v>
+        <v>15768400</v>
       </c>
       <c r="H32" s="3">
-        <v>10391400</v>
+        <v>10299800</v>
       </c>
       <c r="I32" s="3">
-        <v>12711800</v>
+        <v>12599700</v>
       </c>
       <c r="J32" s="3">
-        <v>14869100</v>
+        <v>14738000</v>
       </c>
       <c r="K32" s="3">
         <v>6573400</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2115600</v>
+        <v>2096900</v>
       </c>
       <c r="E33" s="3">
-        <v>980800</v>
+        <v>972200</v>
       </c>
       <c r="F33" s="3">
-        <v>-9071500</v>
+        <v>-8991500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2581200</v>
+        <v>-2558500</v>
       </c>
       <c r="H33" s="3">
-        <v>-4526000</v>
+        <v>-4486100</v>
       </c>
       <c r="I33" s="3">
-        <v>-11796200</v>
+        <v>-11692200</v>
       </c>
       <c r="J33" s="3">
-        <v>-8137600</v>
+        <v>-8065800</v>
       </c>
       <c r="K33" s="3">
         <v>-2839000</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1504,42 +1469,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2115600</v>
+        <v>2096900</v>
       </c>
       <c r="E35" s="3">
-        <v>980800</v>
+        <v>972200</v>
       </c>
       <c r="F35" s="3">
-        <v>-9071500</v>
+        <v>-8991500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2581200</v>
+        <v>-2558500</v>
       </c>
       <c r="H35" s="3">
-        <v>-4526000</v>
+        <v>-4486100</v>
       </c>
       <c r="I35" s="3">
-        <v>-11796200</v>
+        <v>-11692200</v>
       </c>
       <c r="J35" s="3">
-        <v>-8137600</v>
+        <v>-8065800</v>
       </c>
       <c r="K35" s="3">
         <v>-2839000</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1534,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1548,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,67 +1562,67 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132836000</v>
+        <v>131665000</v>
       </c>
       <c r="E41" s="3">
-        <v>149462000</v>
+        <v>148144000</v>
       </c>
       <c r="F41" s="3">
-        <v>119381000</v>
+        <v>118328000</v>
       </c>
       <c r="G41" s="3">
-        <v>127516000</v>
+        <v>126392000</v>
       </c>
       <c r="H41" s="3">
-        <v>157725000</v>
+        <v>156334000</v>
       </c>
       <c r="I41" s="3">
-        <v>143753000</v>
+        <v>142486000</v>
       </c>
       <c r="J41" s="3">
-        <v>179507000</v>
+        <v>177924000</v>
       </c>
       <c r="K41" s="3">
         <v>219916000</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>349494000</v>
+        <v>346412000</v>
       </c>
       <c r="E42" s="3">
-        <v>299159000</v>
+        <v>296522000</v>
       </c>
       <c r="F42" s="3">
-        <v>409246000</v>
+        <v>405637000</v>
       </c>
       <c r="G42" s="3">
-        <v>442404000</v>
+        <v>438503000</v>
       </c>
       <c r="H42" s="3">
-        <v>616940000</v>
+        <v>611500000</v>
       </c>
       <c r="I42" s="3">
-        <v>564170000</v>
+        <v>559196000</v>
       </c>
       <c r="J42" s="3">
-        <v>977093000</v>
+        <v>968478000</v>
       </c>
       <c r="K42" s="3">
         <v>1062700000</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1687,7 +1652,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1682,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1747,7 +1712,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1777,24 +1742,24 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>526900</v>
+        <v>522300</v>
       </c>
       <c r="E47" s="3">
-        <v>1839100</v>
+        <v>1822900</v>
       </c>
       <c r="F47" s="3">
-        <v>1968200</v>
+        <v>1950900</v>
       </c>
       <c r="G47" s="3">
-        <v>1580800</v>
+        <v>1566900</v>
       </c>
       <c r="H47" s="3">
-        <v>1374700</v>
+        <v>1362600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -1807,67 +1772,67 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5675100</v>
+        <v>5625000</v>
       </c>
       <c r="E48" s="3">
-        <v>6002400</v>
+        <v>5949500</v>
       </c>
       <c r="F48" s="3">
-        <v>5986800</v>
+        <v>5934000</v>
       </c>
       <c r="G48" s="3">
-        <v>5845900</v>
+        <v>5794400</v>
       </c>
       <c r="H48" s="3">
-        <v>10564900</v>
+        <v>10471800</v>
       </c>
       <c r="I48" s="3">
-        <v>10315800</v>
+        <v>10224800</v>
       </c>
       <c r="J48" s="3">
-        <v>25522700</v>
+        <v>25297700</v>
       </c>
       <c r="K48" s="3">
         <v>15627700</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8629300</v>
+        <v>8553200</v>
       </c>
       <c r="E49" s="3">
-        <v>8534100</v>
+        <v>8458900</v>
       </c>
       <c r="F49" s="3">
-        <v>8451900</v>
+        <v>8377400</v>
       </c>
       <c r="G49" s="3">
-        <v>8526300</v>
+        <v>8451100</v>
       </c>
       <c r="H49" s="3">
-        <v>12123600</v>
+        <v>12016700</v>
       </c>
       <c r="I49" s="3">
-        <v>16131700</v>
+        <v>15989500</v>
       </c>
       <c r="J49" s="3">
-        <v>35333800</v>
+        <v>35022200</v>
       </c>
       <c r="K49" s="3">
         <v>19564900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1927,37 +1892,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4351200</v>
+        <v>4312800</v>
       </c>
       <c r="E52" s="3">
-        <v>3035100</v>
+        <v>3008400</v>
       </c>
       <c r="F52" s="3">
-        <v>2728600</v>
+        <v>2704600</v>
       </c>
       <c r="G52" s="3">
-        <v>8258900</v>
+        <v>8186100</v>
       </c>
       <c r="H52" s="3">
-        <v>109695000</v>
+        <v>108728000</v>
       </c>
       <c r="I52" s="3">
-        <v>8750600</v>
+        <v>8673500</v>
       </c>
       <c r="J52" s="3">
-        <v>22842400</v>
+        <v>22641000</v>
       </c>
       <c r="K52" s="3">
         <v>39279800</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1987,37 +1952,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>905498000</v>
+        <v>897514000</v>
       </c>
       <c r="E54" s="3">
-        <v>962654000</v>
+        <v>954166000</v>
       </c>
       <c r="F54" s="3">
-        <v>1041700000</v>
+        <v>1032510000</v>
       </c>
       <c r="G54" s="3">
-        <v>1063540000</v>
+        <v>1054170000</v>
       </c>
       <c r="H54" s="3">
-        <v>1370850000</v>
+        <v>1358770000</v>
       </c>
       <c r="I54" s="3">
-        <v>1340670000</v>
+        <v>1328850000</v>
       </c>
       <c r="J54" s="3">
-        <v>1711640000</v>
+        <v>1696550000</v>
       </c>
       <c r="K54" s="3">
         <v>1984230000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,7 +2010,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2075,67 +2040,67 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13944400</v>
+        <v>13821400</v>
       </c>
       <c r="E58" s="3">
-        <v>60380400</v>
+        <v>59848100</v>
       </c>
       <c r="F58" s="3">
-        <v>50749400</v>
+        <v>50301900</v>
       </c>
       <c r="G58" s="3">
-        <v>63129900</v>
+        <v>62573300</v>
       </c>
       <c r="H58" s="3">
-        <v>100360000</v>
+        <v>99475300</v>
       </c>
       <c r="I58" s="3">
-        <v>136679000</v>
+        <v>135474000</v>
       </c>
       <c r="J58" s="3">
-        <v>377043000</v>
+        <v>373719000</v>
       </c>
       <c r="K58" s="3">
         <v>432173000</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1496000</v>
+        <v>1482900</v>
       </c>
       <c r="E59" s="3">
-        <v>1696900</v>
+        <v>1681900</v>
       </c>
       <c r="F59" s="3">
-        <v>2148200</v>
+        <v>2129300</v>
       </c>
       <c r="G59" s="3">
-        <v>2977700</v>
+        <v>2951500</v>
       </c>
       <c r="H59" s="3">
-        <v>4459400</v>
+        <v>4420100</v>
       </c>
       <c r="I59" s="3">
-        <v>4737300</v>
+        <v>4695500</v>
       </c>
       <c r="J59" s="3">
-        <v>5355500</v>
+        <v>5308300</v>
       </c>
       <c r="K59" s="3">
         <v>7428000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2165,67 +2130,67 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54426200</v>
+        <v>53946400</v>
       </c>
       <c r="E61" s="3">
-        <v>42987400</v>
+        <v>42608400</v>
       </c>
       <c r="F61" s="3">
-        <v>50750700</v>
+        <v>50303200</v>
       </c>
       <c r="G61" s="3">
-        <v>53367100</v>
+        <v>52896600</v>
       </c>
       <c r="H61" s="3">
-        <v>77050800</v>
+        <v>76371500</v>
       </c>
       <c r="I61" s="3">
-        <v>96432900</v>
+        <v>95582600</v>
       </c>
       <c r="J61" s="3">
-        <v>128759000</v>
+        <v>127624000</v>
       </c>
       <c r="K61" s="3">
         <v>157260000</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4725500</v>
+        <v>4683900</v>
       </c>
       <c r="E62" s="3">
-        <v>11046200</v>
+        <v>10948800</v>
       </c>
       <c r="F62" s="3">
-        <v>18079000</v>
+        <v>17919600</v>
       </c>
       <c r="G62" s="3">
-        <v>15700000</v>
+        <v>15561600</v>
       </c>
       <c r="H62" s="3">
-        <v>12510900</v>
+        <v>12400600</v>
       </c>
       <c r="I62" s="3">
-        <v>4848100</v>
+        <v>4805400</v>
       </c>
       <c r="J62" s="3">
-        <v>6554200</v>
+        <v>6496400</v>
       </c>
       <c r="K62" s="3">
         <v>5509400</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2220,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2250,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2315,37 +2280,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>845844000</v>
+        <v>838386000</v>
       </c>
       <c r="E66" s="3">
-        <v>899617000</v>
+        <v>891685000</v>
       </c>
       <c r="F66" s="3">
-        <v>978294000</v>
+        <v>969668000</v>
       </c>
       <c r="G66" s="3">
-        <v>993854000</v>
+        <v>985092000</v>
       </c>
       <c r="H66" s="3">
-        <v>1298120000</v>
+        <v>1286680000</v>
       </c>
       <c r="I66" s="3">
-        <v>1264050000</v>
+        <v>1252910000</v>
       </c>
       <c r="J66" s="3">
-        <v>1622060000</v>
+        <v>1607760000</v>
       </c>
       <c r="K66" s="3">
         <v>1884980000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2324,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2354,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2384,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,37 +2444,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32859500</v>
+        <v>32569800</v>
       </c>
       <c r="E72" s="3">
-        <v>36535000</v>
+        <v>36212900</v>
       </c>
       <c r="F72" s="3">
-        <v>3243800</v>
+        <v>3215200</v>
       </c>
       <c r="G72" s="3">
-        <v>14873000</v>
+        <v>14741900</v>
       </c>
       <c r="H72" s="3">
-        <v>23936700</v>
+        <v>23725600</v>
       </c>
       <c r="I72" s="3">
-        <v>30286100</v>
+        <v>30019000</v>
       </c>
       <c r="J72" s="3">
-        <v>41400100</v>
+        <v>41035100</v>
       </c>
       <c r="K72" s="3">
         <v>41006200</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2539,7 +2504,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2534,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2599,37 +2564,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59653900</v>
+        <v>59128000</v>
       </c>
       <c r="E76" s="3">
-        <v>63037300</v>
+        <v>62481500</v>
       </c>
       <c r="F76" s="3">
-        <v>63401200</v>
+        <v>62842200</v>
       </c>
       <c r="G76" s="3">
-        <v>69690600</v>
+        <v>69076100</v>
       </c>
       <c r="H76" s="3">
-        <v>72732200</v>
+        <v>72091000</v>
       </c>
       <c r="I76" s="3">
-        <v>76617800</v>
+        <v>75942200</v>
       </c>
       <c r="J76" s="3">
-        <v>89577400</v>
+        <v>88787600</v>
       </c>
       <c r="K76" s="3">
         <v>99242500</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,12 +2624,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2694,37 +2659,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2115600</v>
+        <v>2096900</v>
       </c>
       <c r="E81" s="3">
-        <v>980800</v>
+        <v>972200</v>
       </c>
       <c r="F81" s="3">
-        <v>-9071500</v>
+        <v>-8991500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2581200</v>
+        <v>-2558500</v>
       </c>
       <c r="H81" s="3">
-        <v>-4526000</v>
+        <v>-4486100</v>
       </c>
       <c r="I81" s="3">
-        <v>-11796200</v>
+        <v>-11692200</v>
       </c>
       <c r="J81" s="3">
-        <v>-8137600</v>
+        <v>-8065800</v>
       </c>
       <c r="K81" s="3">
         <v>-2839000</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,37 +2703,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>936500</v>
+        <v>928200</v>
       </c>
       <c r="E83" s="3">
-        <v>1053900</v>
+        <v>1044600</v>
       </c>
       <c r="F83" s="3">
-        <v>1014800</v>
+        <v>1005800</v>
       </c>
       <c r="G83" s="3">
-        <v>1539100</v>
+        <v>1525500</v>
       </c>
       <c r="H83" s="3">
-        <v>1446500</v>
+        <v>1433700</v>
       </c>
       <c r="I83" s="3">
-        <v>1839100</v>
+        <v>1822900</v>
       </c>
       <c r="J83" s="3">
-        <v>2418200</v>
+        <v>2396900</v>
       </c>
       <c r="K83" s="3">
         <v>2469000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +2763,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2793,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2823,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2853,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2918,37 +2883,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-297400</v>
+        <v>-294800</v>
       </c>
       <c r="E89" s="3">
-        <v>50530300</v>
+        <v>50084800</v>
       </c>
       <c r="F89" s="3">
-        <v>-4760700</v>
+        <v>-4718800</v>
       </c>
       <c r="G89" s="3">
-        <v>1197400</v>
+        <v>1186800</v>
       </c>
       <c r="H89" s="3">
-        <v>-26591000</v>
+        <v>-26356500</v>
       </c>
       <c r="I89" s="3">
-        <v>-39952300</v>
+        <v>-39600100</v>
       </c>
       <c r="J89" s="3">
-        <v>-58841300</v>
+        <v>-58322500</v>
       </c>
       <c r="K89" s="3">
         <v>4378300</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,37 +2927,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-807400</v>
+        <v>-800200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1476500</v>
+        <v>-1463500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1189500</v>
+        <v>-1179000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1021300</v>
+        <v>-1012300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1064300</v>
+        <v>-1054900</v>
       </c>
       <c r="I91" s="3">
-        <v>-816500</v>
+        <v>-809300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1935600</v>
+        <v>-1918500</v>
       </c>
       <c r="K91" s="3">
         <v>-4571900</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3052,37 +3017,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10375800</v>
+        <v>-10284300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8454500</v>
+        <v>-8380000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5685500</v>
+        <v>-5635400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6346800</v>
+        <v>-6290800</v>
       </c>
       <c r="H94" s="3">
-        <v>8620200</v>
+        <v>8544200</v>
       </c>
       <c r="I94" s="3">
-        <v>27629200</v>
+        <v>27385600</v>
       </c>
       <c r="J94" s="3">
-        <v>35444600</v>
+        <v>35132100</v>
       </c>
       <c r="K94" s="3">
         <v>18400</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,37 +3061,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1047400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-798200</v>
+        <v>-791200</v>
       </c>
       <c r="F96" s="3">
-        <v>-657400</v>
+        <v>-2193900</v>
       </c>
       <c r="G96" s="3">
-        <v>-542600</v>
+        <v>-537800</v>
       </c>
       <c r="H96" s="3">
-        <v>-499600</v>
+        <v>-908800</v>
       </c>
       <c r="I96" s="3">
-        <v>-525600</v>
+        <v>-521000</v>
       </c>
       <c r="J96" s="3">
-        <v>-392600</v>
+        <v>-389100</v>
       </c>
       <c r="K96" s="3">
         <v>-52700</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3186,7 +3151,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3216,90 +3181,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8200200</v>
+        <v>-8127900</v>
       </c>
       <c r="E100" s="3">
-        <v>-10705800</v>
+        <v>-10611400</v>
       </c>
       <c r="F100" s="3">
-        <v>-6661100</v>
+        <v>-6602400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1226100</v>
+        <v>-1215200</v>
       </c>
       <c r="H100" s="3">
-        <v>-526900</v>
+        <v>-522300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3558200</v>
+        <v>-3526800</v>
       </c>
       <c r="J100" s="3">
-        <v>2630800</v>
+        <v>2607600</v>
       </c>
       <c r="K100" s="3">
         <v>-2292500</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>881700</v>
+        <v>873900</v>
       </c>
       <c r="E101" s="3">
-        <v>-20900</v>
+        <v>-20700</v>
       </c>
       <c r="F101" s="3">
-        <v>10557100</v>
+        <v>10464000</v>
       </c>
       <c r="G101" s="3">
-        <v>751300</v>
+        <v>744700</v>
       </c>
       <c r="H101" s="3">
-        <v>1185600</v>
+        <v>1175200</v>
       </c>
       <c r="I101" s="3">
-        <v>667800</v>
+        <v>661900</v>
       </c>
       <c r="J101" s="3">
-        <v>-5077700</v>
+        <v>-5032900</v>
       </c>
       <c r="K101" s="3">
         <v>-1939600</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17991700</v>
+        <v>-17833000</v>
       </c>
       <c r="E102" s="3">
-        <v>31349100</v>
+        <v>31072700</v>
       </c>
       <c r="F102" s="3">
-        <v>-6550200</v>
+        <v>-6492500</v>
       </c>
       <c r="G102" s="3">
-        <v>-5624200</v>
+        <v>-5574600</v>
       </c>
       <c r="H102" s="3">
-        <v>-17312100</v>
+        <v>-17159500</v>
       </c>
       <c r="I102" s="3">
-        <v>-15213500</v>
+        <v>-15079300</v>
       </c>
       <c r="J102" s="3">
-        <v>-25843600</v>
+        <v>-25615700</v>
       </c>
       <c r="K102" s="3">
         <v>164600</v>
